--- a/medicine/Psychotrope/Bouillet_(cépage)/Bouillet_(cépage).xlsx
+++ b/medicine/Psychotrope/Bouillet_(cépage)/Bouillet_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bouillet est un cépage français de raisins rouges.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il provient du Sud-Ouest de la France. Il a été souvent assimilé au jurançon noir avant d'être décrit par Paul Truel.
 Il est classé recommandé dans le département Lot-et-Garonne et autorisé dans le département Dordogne. En 1998, il couvrait moins de 20 ha contre 176 hectares en 1958.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau épanoui, cotonneux blanc parfois à faible liseré carminé.
 Jeunes feuilles duveteuses, petites plages bronzées.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive: 25 jours après le Chasselas.
 C'est un cépage de bonne vigueur et de bonne productivité.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont de taille moyenne et les baies sont moyennes. La grappe est cylindrique et compacte. Le cépage est sensible à la pourriture grise.
 Il donne un vin rouge peu coloré et souvent acide.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bouillet_(c%C3%A9page)</t>
+          <t>Bouillet_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouillet est connu sous les noms de bouiller noir, fouine, mondeuse noir, plant dame noir, plant de Mérille ou quillard.
 </t>
